--- a/data_capture/static/data_capture/r10_export_sample.xlsx
+++ b/data_capture/static/data_capture/r10_export_sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesseppi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesseppi/CODE/CALC/data_capture/static/data_capture/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20220"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="MostCurrentLaborCategories" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Labor Category</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>123-2, 456-8</t>
+  </si>
+  <si>
+    <t>BAD ROW</t>
   </si>
 </sst>
 </file>
@@ -489,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -617,113 +620,126 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2">
-        <v>101</v>
-      </c>
-      <c r="D3" s="2">
-        <v>102</v>
-      </c>
-      <c r="E3" s="2">
-        <v>103</v>
-      </c>
-      <c r="F3" s="2">
-        <v>104</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="1">
-        <v>40299</v>
-      </c>
-      <c r="P3" s="1">
-        <v>44347</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>102</v>
-      </c>
-      <c r="R3">
-        <v>3</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
-        <v>75.099999999999994</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2">
-        <v>85.2</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2">
-        <v>95.3</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2">
-        <v>105.4</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2">
-        <v>115.5</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="O4" s="1">
-        <v>42552</v>
+        <v>40299</v>
       </c>
       <c r="P4" s="1">
         <v>44347</v>
       </c>
       <c r="Q4" s="2">
+        <v>102</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2">
         <v>75.099999999999994</v>
       </c>
-      <c r="R4">
+      <c r="C5" s="2">
+        <v>85.2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>95.3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>105.4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>115.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1">
+        <v>42552</v>
+      </c>
+      <c r="P5" s="1">
+        <v>44347</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="R5">
         <v>1</v>
       </c>
     </row>
